--- a/Dokumente/Bewertung.xlsx
+++ b/Dokumente/Bewertung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdf4afec1cc74662/Dokumente/DHBW_Python/PythonLecture/exam/exam 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yannikangeli/Python/Git/Python/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_321FAB9E019F3303667ED6516FE4094E8BC3F268" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5201D56-A9AD-4529-A613-B97D44FBAC1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75028428-2087-8044-9B01-090B78FE49B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung" sheetId="1" r:id="rId1"/>
@@ -262,10 +262,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B5:E12" totalsRowShown="0">
   <autoFilter ref="B5:E12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -598,20 +594,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -621,13 +617,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -641,67 +637,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>9</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -711,7 +719,7 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D6:D11)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4">
         <f>SUM(E6:E11)</f>
